--- a/Import/pyControllerList/Storage Controller.xlsx
+++ b/Import/pyControllerList/Storage Controller.xlsx
@@ -1282,14 +1282,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -1458,7 +1458,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>23</v>

--- a/Import/pyControllerList/Storage Controller.xlsx
+++ b/Import/pyControllerList/Storage Controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -1283,33 +1283,35 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1"/>
-    <col min="18" max="19" width="10.109375" customWidth="1"/>
-    <col min="20" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>28</v>
@@ -1361,7 +1363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
@@ -1447,7 +1449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -1458,10 +1460,10 @@
         <v>50</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>43</v>
@@ -1500,16 +1502,16 @@
         <v>0.85</v>
       </c>
       <c r="R3" s="12">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="S3" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T3" s="12">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="U3" s="12">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V3" s="12">
         <v>0.95</v>
@@ -1578,20 +1580,20 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1602,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1611,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1633,12 +1635,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
